--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
   <si>
     <t>测试点说明</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IP为空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -148,10 +144,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>IP地址输入不正确，请重新输入!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不勾选运维协议</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -407,30 +399,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.202</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.208</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.205</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>H3C</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>华为</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  telnet 登录模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>添加Cisco资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -451,10 +423,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>华为(172.16.10.205)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>huawei</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -473,10 +441,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Cisco</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Telnet</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -560,10 +524,6 @@
   </si>
   <si>
     <t>查询资源名称为H3C资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询资源IP为172.16.10.205</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -700,6 +660,126 @@
       </rPr>
       <t>位</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciscoyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3Cyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>华为y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H3C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yy</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.215</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>172.16.10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>172.16.10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为yy(172.16.10.217)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资源IP为172.16.10.217</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.217</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciscoyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Cisco资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delNetworkRes_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为yy(172.16.10.217)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除华为资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1193,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,11 +1286,11 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="30.625" customWidth="1"/>
     <col min="5" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="15" width="32.375" customWidth="1"/>
-    <col min="16" max="16" width="42.375" customWidth="1"/>
+    <col min="7" max="14" width="32.375" customWidth="1"/>
+    <col min="15" max="15" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,51 +1313,48 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25">
+    <row r="2" spans="1:15" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1285,105 +1362,99 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.25">
+        <v>99</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25">
+      <c r="A4" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25">
-      <c r="A4" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>101</v>
+        <v>131</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>99</v>
+      <c r="F4" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>18</v>
@@ -1403,11 +1474,8 @@
       <c r="N4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>121</v>
+      <c r="O4" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1418,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1440,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1448,16 +1516,44 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1468,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1483,18 +1579,17 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="33.5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1517,81 +1612,75 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="14.25">
+      <c r="O1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1604,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1624,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1644,132 +1733,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1783,7 +1872,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1812,19 +1901,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -1836,13 +1925,13 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1851,15 +1940,15 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -1869,7 +1958,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1878,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -1892,13 +1981,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1907,27 +1996,27 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
@@ -1936,27 +2025,27 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
@@ -1965,27 +2054,27 @@
         <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
@@ -1994,24 +2083,24 @@
         <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2023,27 +2112,27 @@
         <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -2052,21 +2141,21 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -2081,27 +2170,27 @@
         <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
@@ -2110,27 +2199,27 @@
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
@@ -2139,18 +2228,18 @@
         <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -2159,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
@@ -2168,27 +2257,27 @@
         <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2197,7 +2286,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2303,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2236,22 +2325,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2259,22 +2348,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+      <c r="C2" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G2" s="5">
         <v>123</v>
@@ -2283,12 +2372,12 @@
         <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -2300,7 +2389,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>18</v>
@@ -2312,12 +2401,12 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -2329,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -2341,12 +2430,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2358,10 +2447,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2370,12 +2459,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2384,13 +2473,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2399,7 +2488,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2502,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2433,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2444,19 +2533,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+      <c r="C2" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2559,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2489,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2497,16 +2586,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+      <c r="C2" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2609,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2543,19 +2632,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2563,16 +2652,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -2584,50 +2673,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2636,102 +2725,102 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2740,24 +2829,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2766,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2869,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2797,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2811,22 +2900,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
+        <v>110</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -2834,12 +2923,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -2847,12 +2936,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -2862,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
